--- a/Boletos base.xlsx
+++ b/Boletos base.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilopez\Desktop\New folder (2)\Tickets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilopez\Desktop\New folder (4)\Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>CatalogoRutas</t>
   </si>
@@ -62,9 +66,6 @@
     <t>NombreAcceso</t>
   </si>
   <si>
-    <t>ConexionAcceso</t>
-  </si>
-  <si>
     <t>IdAdministrativo</t>
   </si>
   <si>
@@ -108,6 +109,78 @@
   </si>
   <si>
     <t>FotoAtras</t>
+  </si>
+  <si>
+    <t>IdCatRutas int primary key not null identity,</t>
+  </si>
+  <si>
+    <t>NombreAcceso varchar(250),</t>
+  </si>
+  <si>
+    <t>FechaCreacion datetime</t>
+  </si>
+  <si>
+    <t>IdCatPrecio int primary key not null identity,</t>
+  </si>
+  <si>
+    <t>NombrePrecio varchar(250),</t>
+  </si>
+  <si>
+    <t>Precio money,</t>
+  </si>
+  <si>
+    <t>IdAcceso int primary key not null identity,</t>
+  </si>
+  <si>
+    <t>IdUsuario int primary key not null identity ,</t>
+  </si>
+  <si>
+    <t>Nombre varchar(250),</t>
+  </si>
+  <si>
+    <t>ApellidoP Varchar(250),</t>
+  </si>
+  <si>
+    <t>ApellidoM Varchar(250),</t>
+  </si>
+  <si>
+    <t>Correo Varchar(250),</t>
+  </si>
+  <si>
+    <t>Usuario varchar(250),</t>
+  </si>
+  <si>
+    <t>Pass varchar(250),</t>
+  </si>
+  <si>
+    <t>IdAcceso int foreign key references Accesos(IdAcceso),</t>
+  </si>
+  <si>
+    <t>FotoAd image,</t>
+  </si>
+  <si>
+    <t>FotoAt image,</t>
+  </si>
+  <si>
+    <t>IdBoleto int primary key not null identity,</t>
+  </si>
+  <si>
+    <t>IdUsuario int foreign key references Users(IdUsuario),</t>
+  </si>
+  <si>
+    <t>IdUsuarioChofer int foreign key references Users(IdUsuario),</t>
+  </si>
+  <si>
+    <t>IdPrecio int foreign key references CatPrecio(IdCatPrecio),</t>
+  </si>
+  <si>
+    <t>FechaCreacion datetime,</t>
+  </si>
+  <si>
+    <t>Estado bit</t>
+  </si>
+  <si>
+    <t>zdxsf</t>
   </si>
 </sst>
 </file>
@@ -425,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,60 +510,63 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -498,13 +574,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -515,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -530,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -539,20 +615,252 @@
       </c>
       <c r="C5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>